--- a/biology/Médecine/BFM/BFM.xlsx
+++ b/biology/Médecine/BFM/BFM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Association RMC/BFM est une association française visant à œuvrer en faveur de la prévention, et de l’information en matière d’action médicale. Le principal champ d'activité est l'installation de défibrillateurs cardiaques dans les lieux accueillant du public et les entreprises et de sensibiliser la population au massage cardiaque et à l’utilisation du défibrillateur. L'association a été créée en 2008 par Isabelle et Alain Weill[1], membres du comité de direction du groupe NextRadioTV qui détient en particulier les radios RMC et BFM.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Association RMC/BFM est une association française visant à œuvrer en faveur de la prévention, et de l’information en matière d’action médicale. Le principal champ d'activité est l'installation de défibrillateurs cardiaques dans les lieux accueillant du public et les entreprises et de sensibiliser la population au massage cardiaque et à l’utilisation du défibrillateur. L'association a été créée en 2008 par Isabelle et Alain Weill, membres du comité de direction du groupe NextRadioTV qui détient en particulier les radios RMC et BFM.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Association RMC/BFM réalise tout au long de l’année des projets d’envergure nationale sur le terrain et dans les médias pour inciter les chefs d’entreprises et les collectivités locales à s’équiper en défibrillateur et pour sensibiliser la population aux gestes de premiers secours. Les événements ; Train du Cœur[2], Sauvetage Tour Été[3],[4], Sauvetage Tour Hiver, Bus du Cœur, Les Pros de la route ont du Cœur, Tous les jeunes ont du Cœur ont permis d’aller à la rencontre des élus(es), des scolaires et du grand public afin de leur présenter le fléau de l’arrêt cardiaque qui tue chaque année 50 000 personnes en France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Association RMC/BFM réalise tout au long de l’année des projets d’envergure nationale sur le terrain et dans les médias pour inciter les chefs d’entreprises et les collectivités locales à s’équiper en défibrillateur et pour sensibiliser la population aux gestes de premiers secours. Les événements ; Train du Cœur, Sauvetage Tour Été Sauvetage Tour Hiver, Bus du Cœur, Les Pros de la route ont du Cœur, Tous les jeunes ont du Cœur ont permis d’aller à la rencontre des élus(es), des scolaires et du grand public afin de leur présenter le fléau de l’arrêt cardiaque qui tue chaque année 50 000 personnes en France.
 Depuis 2008, l’association a obtenu des résultats concrets à ces actions :
-120 000 défibrillateurs aujourd’hui installés en France. Il y en avait à peine 5 000 en 2008[5].
+120 000 défibrillateurs aujourd’hui installés en France. Il y en avait à peine 5 000 en 2008.
 800 000 jeunes désormais formés chaque année aux gestes qui sauvent lors de la journée citoyenne
 52 000 défibrillateurs recensés par l'application Staying Alive permettant au premier témoin d’intervenir au plus vite. Elle permet aussi à chacun de pouvoir signaler un défibrillateur
 1 000 000 téléchargements de l’application Staying Alive
@@ -553,7 +567,9 @@
           <t>Application Staying Alive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Staying Alive est une application gratuite, disponibles en 18 langues, qui cartographie les défibrillateurs cardiaques dans le monde. Elle recense plus de 250.000 défibrillateurs dont 130.000 en France, ce qui en fait la première base de données de défibrillateurs.
 Staying a reçu plusieurs prix et distinctions :
@@ -563,7 +579,7 @@
 Staying Alive a été téléchargée par 2 millions d'utilisateurs.
 Les principales fonctionnalités de l’application sont :
 La recherche de défibrillateurs proches de vous ou à une adresse précise, grâce à la connexion à une base mise à jours en temps réel.
-Le "Bon Samaritain[6]", développé par le Dr Paul DARDEL[7] fondateur d'AEDMAP France[8] en partenariat avec les services d'urgence et l'association RMC/BFM, permet à toute personne formée aux gestes de premiers secours ou non, d'aider à sauver une vie en étant alerté en cas d'arrêt cardiaque à proximité. Le Bon Samaritain est déployé en France depuis 2016. Le service qui compte plus de 200.000 volontaires est utilisé par les SAMU et/ou les Sapeurs-Pompiers dans 70 départements français. Depuis son lancement le service totalise plus de 22.000 interventions qui ont permis de sauver des centaines de victimes d'arrêt cardiaque. Une étude[9] réalisée conjointement avec la Brigade de Sapeurs-Pompiers de Paris a montré un doublement du taux de survie (de 16 à 35%) en cas d'intervention d'un Bon Samaritain.
+Le "Bon Samaritain", développé par le Dr Paul DARDEL fondateur d'AEDMAP France en partenariat avec les services d'urgence et l'association RMC/BFM, permet à toute personne formée aux gestes de premiers secours ou non, d'aider à sauver une vie en étant alerté en cas d'arrêt cardiaque à proximité. Le Bon Samaritain est déployé en France depuis 2016. Le service qui compte plus de 200.000 volontaires est utilisé par les SAMU et/ou les Sapeurs-Pompiers dans 70 départements français. Depuis son lancement le service totalise plus de 22.000 interventions qui ont permis de sauver des centaines de victimes d'arrêt cardiaque. Une étude réalisée conjointement avec la Brigade de Sapeurs-Pompiers de Paris a montré un doublement du taux de survie (de 16 à 35%) en cas d'intervention d'un Bon Samaritain.
 Le signalement de nouveaux défibrillateurs
 La confirmation de défibrillateurs existants
 Le rappel des gestes qui sauvent avec l’illustration de la chaîne de survie « Appelez, Massez, Défibrillez et Attendez les secours »
